--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_184.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_184.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29092-d78938-Reviews-Days_Inn_Anaheim_Near_the_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>267</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Days-Inn-By-Wyndham-Anaheim-Near-The-Park.h19827.Hotel-Information?chkin=6%2F18%2F2018&amp;chkout=6%2F19%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1528257774492&amp;cancellable=false&amp;regionId=5921&amp;vip=false&amp;c=c9379275-8660-4b71-b517-15d547d27db4&amp;mctc=9&amp;exp_dp=97&amp;exp_ts=1528257775029&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_184.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_184.xlsx
@@ -3717,7 +3717,7 @@
         <v>8081</v>
       </c>
       <c r="B2" t="n">
-        <v>134568</v>
+        <v>165458</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -3774,7 +3774,7 @@
         <v>8081</v>
       </c>
       <c r="B3" t="n">
-        <v>134569</v>
+        <v>165459</v>
       </c>
       <c r="C3" t="s">
         <v>53</v>
@@ -3845,7 +3845,7 @@
         <v>8081</v>
       </c>
       <c r="B4" t="n">
-        <v>134570</v>
+        <v>165460</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -3987,7 +3987,7 @@
         <v>8081</v>
       </c>
       <c r="B6" t="n">
-        <v>134571</v>
+        <v>165461</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -4048,7 +4048,7 @@
         <v>8081</v>
       </c>
       <c r="B7" t="n">
-        <v>134572</v>
+        <v>165462</v>
       </c>
       <c r="C7" t="s">
         <v>81</v>
@@ -4312,7 +4312,7 @@
         <v>8081</v>
       </c>
       <c r="B11" t="n">
-        <v>134573</v>
+        <v>165463</v>
       </c>
       <c r="C11" t="s">
         <v>110</v>
@@ -4383,7 +4383,7 @@
         <v>8081</v>
       </c>
       <c r="B12" t="n">
-        <v>134574</v>
+        <v>165464</v>
       </c>
       <c r="C12" t="s">
         <v>118</v>
@@ -4458,7 +4458,7 @@
         <v>8081</v>
       </c>
       <c r="B13" t="n">
-        <v>134575</v>
+        <v>165465</v>
       </c>
       <c r="C13" t="s">
         <v>128</v>
@@ -4533,7 +4533,7 @@
         <v>8081</v>
       </c>
       <c r="B14" t="n">
-        <v>134576</v>
+        <v>165466</v>
       </c>
       <c r="C14" t="s">
         <v>135</v>
@@ -4878,7 +4878,7 @@
         <v>8081</v>
       </c>
       <c r="B19" t="n">
-        <v>134577</v>
+        <v>165467</v>
       </c>
       <c r="C19" t="s">
         <v>165</v>
@@ -4949,7 +4949,7 @@
         <v>8081</v>
       </c>
       <c r="B20" t="n">
-        <v>134578</v>
+        <v>165468</v>
       </c>
       <c r="C20" t="s">
         <v>171</v>
@@ -5020,7 +5020,7 @@
         <v>8081</v>
       </c>
       <c r="B21" t="n">
-        <v>134579</v>
+        <v>165469</v>
       </c>
       <c r="C21" t="s">
         <v>177</v>
@@ -5091,7 +5091,7 @@
         <v>8081</v>
       </c>
       <c r="B22" t="n">
-        <v>134580</v>
+        <v>165470</v>
       </c>
       <c r="C22" t="s">
         <v>184</v>
@@ -5152,7 +5152,7 @@
         <v>8081</v>
       </c>
       <c r="B23" t="n">
-        <v>134581</v>
+        <v>165471</v>
       </c>
       <c r="C23" t="s">
         <v>190</v>
@@ -5223,7 +5223,7 @@
         <v>8081</v>
       </c>
       <c r="B24" t="n">
-        <v>134582</v>
+        <v>165472</v>
       </c>
       <c r="C24" t="s">
         <v>196</v>
@@ -5284,7 +5284,7 @@
         <v>8081</v>
       </c>
       <c r="B25" t="n">
-        <v>134583</v>
+        <v>165473</v>
       </c>
       <c r="C25" t="s">
         <v>202</v>
@@ -5345,7 +5345,7 @@
         <v>8081</v>
       </c>
       <c r="B26" t="n">
-        <v>134584</v>
+        <v>165474</v>
       </c>
       <c r="C26" t="s">
         <v>208</v>
@@ -5416,7 +5416,7 @@
         <v>8081</v>
       </c>
       <c r="B27" t="n">
-        <v>134585</v>
+        <v>165475</v>
       </c>
       <c r="C27" t="s">
         <v>215</v>
@@ -5491,7 +5491,7 @@
         <v>8081</v>
       </c>
       <c r="B28" t="n">
-        <v>134586</v>
+        <v>165476</v>
       </c>
       <c r="C28" t="s">
         <v>224</v>
@@ -5562,7 +5562,7 @@
         <v>8081</v>
       </c>
       <c r="B29" t="n">
-        <v>134587</v>
+        <v>165477</v>
       </c>
       <c r="C29" t="s">
         <v>230</v>
@@ -5633,7 +5633,7 @@
         <v>8081</v>
       </c>
       <c r="B30" t="n">
-        <v>134588</v>
+        <v>165478</v>
       </c>
       <c r="C30" t="s">
         <v>236</v>
@@ -5694,7 +5694,7 @@
         <v>8081</v>
       </c>
       <c r="B31" t="n">
-        <v>134589</v>
+        <v>165479</v>
       </c>
       <c r="C31" t="s">
         <v>243</v>
@@ -5765,7 +5765,7 @@
         <v>8081</v>
       </c>
       <c r="B32" t="n">
-        <v>134590</v>
+        <v>165480</v>
       </c>
       <c r="C32" t="s">
         <v>251</v>
@@ -5826,7 +5826,7 @@
         <v>8081</v>
       </c>
       <c r="B33" t="n">
-        <v>134591</v>
+        <v>165481</v>
       </c>
       <c r="C33" t="s">
         <v>257</v>
@@ -5893,7 +5893,7 @@
         <v>8081</v>
       </c>
       <c r="B34" t="n">
-        <v>134592</v>
+        <v>165482</v>
       </c>
       <c r="C34" t="s">
         <v>264</v>
@@ -5964,7 +5964,7 @@
         <v>8081</v>
       </c>
       <c r="B35" t="n">
-        <v>134593</v>
+        <v>165483</v>
       </c>
       <c r="C35" t="s">
         <v>270</v>
@@ -6035,7 +6035,7 @@
         <v>8081</v>
       </c>
       <c r="B36" t="n">
-        <v>134594</v>
+        <v>165484</v>
       </c>
       <c r="C36" t="s">
         <v>277</v>
@@ -6106,7 +6106,7 @@
         <v>8081</v>
       </c>
       <c r="B37" t="n">
-        <v>134595</v>
+        <v>165485</v>
       </c>
       <c r="C37" t="s">
         <v>283</v>
@@ -6177,7 +6177,7 @@
         <v>8081</v>
       </c>
       <c r="B38" t="n">
-        <v>134596</v>
+        <v>165486</v>
       </c>
       <c r="C38" t="s">
         <v>289</v>
@@ -6319,7 +6319,7 @@
         <v>8081</v>
       </c>
       <c r="B40" t="n">
-        <v>134597</v>
+        <v>165487</v>
       </c>
       <c r="C40" t="s">
         <v>302</v>
@@ -6386,7 +6386,7 @@
         <v>8081</v>
       </c>
       <c r="B41" t="n">
-        <v>134598</v>
+        <v>165488</v>
       </c>
       <c r="C41" t="s">
         <v>308</v>
@@ -6457,7 +6457,7 @@
         <v>8081</v>
       </c>
       <c r="B42" t="n">
-        <v>134599</v>
+        <v>165489</v>
       </c>
       <c r="C42" t="s">
         <v>316</v>
@@ -6518,7 +6518,7 @@
         <v>8081</v>
       </c>
       <c r="B43" t="n">
-        <v>134600</v>
+        <v>165490</v>
       </c>
       <c r="C43" t="s">
         <v>322</v>
@@ -6660,7 +6660,7 @@
         <v>8081</v>
       </c>
       <c r="B45" t="n">
-        <v>134601</v>
+        <v>165491</v>
       </c>
       <c r="C45" t="s">
         <v>335</v>
@@ -6731,7 +6731,7 @@
         <v>8081</v>
       </c>
       <c r="B46" t="n">
-        <v>134602</v>
+        <v>165492</v>
       </c>
       <c r="C46" t="s">
         <v>342</v>
@@ -6792,7 +6792,7 @@
         <v>8081</v>
       </c>
       <c r="B47" t="n">
-        <v>134603</v>
+        <v>165493</v>
       </c>
       <c r="C47" t="s">
         <v>349</v>
@@ -6924,7 +6924,7 @@
         <v>8081</v>
       </c>
       <c r="B49" t="n">
-        <v>134604</v>
+        <v>165494</v>
       </c>
       <c r="C49" t="s">
         <v>364</v>
@@ -6995,7 +6995,7 @@
         <v>8081</v>
       </c>
       <c r="B50" t="n">
-        <v>134605</v>
+        <v>165495</v>
       </c>
       <c r="C50" t="s">
         <v>370</v>
@@ -7060,7 +7060,7 @@
         <v>8081</v>
       </c>
       <c r="B51" t="n">
-        <v>134606</v>
+        <v>165496</v>
       </c>
       <c r="C51" t="s">
         <v>376</v>
@@ -7135,7 +7135,7 @@
         <v>8081</v>
       </c>
       <c r="B52" t="n">
-        <v>134607</v>
+        <v>165497</v>
       </c>
       <c r="C52" t="s">
         <v>386</v>
@@ -7210,7 +7210,7 @@
         <v>8081</v>
       </c>
       <c r="B53" t="n">
-        <v>134608</v>
+        <v>165498</v>
       </c>
       <c r="C53" t="s">
         <v>393</v>
@@ -7281,7 +7281,7 @@
         <v>8081</v>
       </c>
       <c r="B54" t="n">
-        <v>134609</v>
+        <v>165499</v>
       </c>
       <c r="C54" t="s">
         <v>400</v>
@@ -7352,7 +7352,7 @@
         <v>8081</v>
       </c>
       <c r="B55" t="n">
-        <v>134610</v>
+        <v>165500</v>
       </c>
       <c r="C55" t="s">
         <v>406</v>
@@ -7427,7 +7427,7 @@
         <v>8081</v>
       </c>
       <c r="B56" t="n">
-        <v>134611</v>
+        <v>165501</v>
       </c>
       <c r="C56" t="s">
         <v>416</v>
@@ -7496,7 +7496,7 @@
         <v>8081</v>
       </c>
       <c r="B57" t="n">
-        <v>134612</v>
+        <v>165502</v>
       </c>
       <c r="C57" t="s">
         <v>422</v>
@@ -7628,7 +7628,7 @@
         <v>8081</v>
       </c>
       <c r="B59" t="n">
-        <v>134613</v>
+        <v>165503</v>
       </c>
       <c r="C59" t="s">
         <v>435</v>
@@ -7770,7 +7770,7 @@
         <v>8081</v>
       </c>
       <c r="B61" t="n">
-        <v>134614</v>
+        <v>165504</v>
       </c>
       <c r="C61" t="s">
         <v>448</v>
@@ -7841,7 +7841,7 @@
         <v>8081</v>
       </c>
       <c r="B62" t="n">
-        <v>134615</v>
+        <v>165505</v>
       </c>
       <c r="C62" t="s">
         <v>454</v>
@@ -7912,7 +7912,7 @@
         <v>8081</v>
       </c>
       <c r="B63" t="n">
-        <v>134616</v>
+        <v>165506</v>
       </c>
       <c r="C63" t="s">
         <v>460</v>
@@ -7977,7 +7977,7 @@
         <v>8081</v>
       </c>
       <c r="B64" t="n">
-        <v>134617</v>
+        <v>165507</v>
       </c>
       <c r="C64" t="s">
         <v>466</v>
@@ -8048,7 +8048,7 @@
         <v>8081</v>
       </c>
       <c r="B65" t="n">
-        <v>134618</v>
+        <v>165508</v>
       </c>
       <c r="C65" t="s">
         <v>472</v>
@@ -8119,7 +8119,7 @@
         <v>8081</v>
       </c>
       <c r="B66" t="n">
-        <v>134619</v>
+        <v>165509</v>
       </c>
       <c r="C66" t="s">
         <v>479</v>
@@ -8261,7 +8261,7 @@
         <v>8081</v>
       </c>
       <c r="B68" t="n">
-        <v>134620</v>
+        <v>165510</v>
       </c>
       <c r="C68" t="s">
         <v>491</v>
@@ -8322,7 +8322,7 @@
         <v>8081</v>
       </c>
       <c r="B69" t="n">
-        <v>134621</v>
+        <v>165511</v>
       </c>
       <c r="C69" t="s">
         <v>498</v>
@@ -8393,7 +8393,7 @@
         <v>8081</v>
       </c>
       <c r="B70" t="n">
-        <v>134622</v>
+        <v>165512</v>
       </c>
       <c r="C70" t="s">
         <v>505</v>
@@ -8460,7 +8460,7 @@
         <v>8081</v>
       </c>
       <c r="B71" t="n">
-        <v>134623</v>
+        <v>165513</v>
       </c>
       <c r="C71" t="s">
         <v>513</v>
@@ -8531,7 +8531,7 @@
         <v>8081</v>
       </c>
       <c r="B72" t="n">
-        <v>134624</v>
+        <v>165514</v>
       </c>
       <c r="C72" t="s">
         <v>519</v>
@@ -8602,7 +8602,7 @@
         <v>8081</v>
       </c>
       <c r="B73" t="n">
-        <v>134625</v>
+        <v>165515</v>
       </c>
       <c r="C73" t="s">
         <v>525</v>
@@ -8673,7 +8673,7 @@
         <v>8081</v>
       </c>
       <c r="B74" t="n">
-        <v>134626</v>
+        <v>165516</v>
       </c>
       <c r="C74" t="s">
         <v>531</v>
@@ -8809,7 +8809,7 @@
         <v>8081</v>
       </c>
       <c r="B76" t="n">
-        <v>134627</v>
+        <v>165517</v>
       </c>
       <c r="C76" t="s">
         <v>547</v>
@@ -8872,7 +8872,7 @@
         <v>8081</v>
       </c>
       <c r="B77" t="n">
-        <v>134628</v>
+        <v>165518</v>
       </c>
       <c r="C77" t="s">
         <v>555</v>
@@ -8943,7 +8943,7 @@
         <v>8081</v>
       </c>
       <c r="B78" t="n">
-        <v>134629</v>
+        <v>165519</v>
       </c>
       <c r="C78" t="s">
         <v>562</v>
@@ -9014,7 +9014,7 @@
         <v>8081</v>
       </c>
       <c r="B79" t="n">
-        <v>134630</v>
+        <v>165520</v>
       </c>
       <c r="C79" t="s">
         <v>568</v>
@@ -9156,7 +9156,7 @@
         <v>8081</v>
       </c>
       <c r="B81" t="n">
-        <v>134631</v>
+        <v>165521</v>
       </c>
       <c r="C81" t="s">
         <v>582</v>
@@ -9227,7 +9227,7 @@
         <v>8081</v>
       </c>
       <c r="B82" t="n">
-        <v>134632</v>
+        <v>165522</v>
       </c>
       <c r="C82" t="s">
         <v>588</v>
@@ -9298,7 +9298,7 @@
         <v>8081</v>
       </c>
       <c r="B83" t="n">
-        <v>134633</v>
+        <v>165523</v>
       </c>
       <c r="C83" t="s">
         <v>594</v>
@@ -9369,7 +9369,7 @@
         <v>8081</v>
       </c>
       <c r="B84" t="n">
-        <v>134634</v>
+        <v>165524</v>
       </c>
       <c r="C84" t="s">
         <v>601</v>
@@ -9440,7 +9440,7 @@
         <v>8081</v>
       </c>
       <c r="B85" t="n">
-        <v>134635</v>
+        <v>165525</v>
       </c>
       <c r="C85" t="s">
         <v>607</v>
@@ -9511,7 +9511,7 @@
         <v>8081</v>
       </c>
       <c r="B86" t="n">
-        <v>134636</v>
+        <v>165526</v>
       </c>
       <c r="C86" t="s">
         <v>613</v>
@@ -9582,7 +9582,7 @@
         <v>8081</v>
       </c>
       <c r="B87" t="n">
-        <v>134637</v>
+        <v>165527</v>
       </c>
       <c r="C87" t="s">
         <v>620</v>
@@ -9653,7 +9653,7 @@
         <v>8081</v>
       </c>
       <c r="B88" t="n">
-        <v>134638</v>
+        <v>165528</v>
       </c>
       <c r="C88" t="s">
         <v>627</v>
@@ -9724,7 +9724,7 @@
         <v>8081</v>
       </c>
       <c r="B89" t="n">
-        <v>134639</v>
+        <v>165529</v>
       </c>
       <c r="C89" t="s">
         <v>633</v>
@@ -9795,7 +9795,7 @@
         <v>8081</v>
       </c>
       <c r="B90" t="n">
-        <v>134640</v>
+        <v>165530</v>
       </c>
       <c r="C90" t="s">
         <v>639</v>
@@ -9866,7 +9866,7 @@
         <v>8081</v>
       </c>
       <c r="B91" t="n">
-        <v>134641</v>
+        <v>165531</v>
       </c>
       <c r="C91" t="s">
         <v>646</v>
@@ -9931,7 +9931,7 @@
         <v>8081</v>
       </c>
       <c r="B92" t="n">
-        <v>134642</v>
+        <v>165532</v>
       </c>
       <c r="C92" t="s">
         <v>653</v>
@@ -9992,7 +9992,7 @@
         <v>8081</v>
       </c>
       <c r="B93" t="n">
-        <v>134643</v>
+        <v>165533</v>
       </c>
       <c r="C93" t="s">
         <v>659</v>
@@ -10199,7 +10199,7 @@
         <v>8081</v>
       </c>
       <c r="B96" t="n">
-        <v>134644</v>
+        <v>139366</v>
       </c>
       <c r="C96" t="s">
         <v>679</v>
@@ -10270,7 +10270,7 @@
         <v>8081</v>
       </c>
       <c r="B97" t="n">
-        <v>134645</v>
+        <v>165534</v>
       </c>
       <c r="C97" t="s">
         <v>685</v>
@@ -10406,7 +10406,7 @@
         <v>8081</v>
       </c>
       <c r="B99" t="n">
-        <v>134646</v>
+        <v>165535</v>
       </c>
       <c r="C99" t="s">
         <v>698</v>
@@ -10680,7 +10680,7 @@
         <v>8081</v>
       </c>
       <c r="B103" t="n">
-        <v>134647</v>
+        <v>165536</v>
       </c>
       <c r="C103" t="s">
         <v>723</v>
@@ -10816,7 +10816,7 @@
         <v>8081</v>
       </c>
       <c r="B105" t="n">
-        <v>134648</v>
+        <v>165537</v>
       </c>
       <c r="C105" t="s">
         <v>738</v>
@@ -10887,7 +10887,7 @@
         <v>8081</v>
       </c>
       <c r="B106" t="n">
-        <v>134649</v>
+        <v>165538</v>
       </c>
       <c r="C106" t="s">
         <v>744</v>
@@ -10958,7 +10958,7 @@
         <v>8081</v>
       </c>
       <c r="B107" t="n">
-        <v>134650</v>
+        <v>165539</v>
       </c>
       <c r="C107" t="s">
         <v>751</v>
@@ -11025,7 +11025,7 @@
         <v>8081</v>
       </c>
       <c r="B108" t="n">
-        <v>134651</v>
+        <v>165540</v>
       </c>
       <c r="C108" t="s">
         <v>759</v>
@@ -11157,7 +11157,7 @@
         <v>8081</v>
       </c>
       <c r="B110" t="n">
-        <v>134652</v>
+        <v>165541</v>
       </c>
       <c r="C110" t="s">
         <v>773</v>
@@ -11370,7 +11370,7 @@
         <v>8081</v>
       </c>
       <c r="B113" t="n">
-        <v>134653</v>
+        <v>165542</v>
       </c>
       <c r="C113" t="s">
         <v>793</v>
@@ -11441,7 +11441,7 @@
         <v>8081</v>
       </c>
       <c r="B114" t="n">
-        <v>134654</v>
+        <v>165543</v>
       </c>
       <c r="C114" t="s">
         <v>801</v>
@@ -11583,7 +11583,7 @@
         <v>8081</v>
       </c>
       <c r="B116" t="n">
-        <v>134655</v>
+        <v>165544</v>
       </c>
       <c r="C116" t="s">
         <v>815</v>
@@ -11723,7 +11723,7 @@
         <v>8081</v>
       </c>
       <c r="B118" t="n">
-        <v>134656</v>
+        <v>165545</v>
       </c>
       <c r="C118" t="s">
         <v>828</v>
@@ -11794,7 +11794,7 @@
         <v>8081</v>
       </c>
       <c r="B119" t="n">
-        <v>134657</v>
+        <v>165546</v>
       </c>
       <c r="C119" t="s">
         <v>834</v>
@@ -12007,7 +12007,7 @@
         <v>8081</v>
       </c>
       <c r="B122" t="n">
-        <v>134658</v>
+        <v>165547</v>
       </c>
       <c r="C122" t="s">
         <v>853</v>
@@ -12078,7 +12078,7 @@
         <v>8081</v>
       </c>
       <c r="B123" t="n">
-        <v>134659</v>
+        <v>165548</v>
       </c>
       <c r="C123" t="s">
         <v>860</v>
@@ -12220,7 +12220,7 @@
         <v>8081</v>
       </c>
       <c r="B125" t="n">
-        <v>134660</v>
+        <v>165549</v>
       </c>
       <c r="C125" t="s">
         <v>875</v>
@@ -12291,7 +12291,7 @@
         <v>8081</v>
       </c>
       <c r="B126" t="n">
-        <v>134661</v>
+        <v>165550</v>
       </c>
       <c r="C126" t="s">
         <v>881</v>
@@ -12433,7 +12433,7 @@
         <v>8081</v>
       </c>
       <c r="B128" t="n">
-        <v>134662</v>
+        <v>165551</v>
       </c>
       <c r="C128" t="s">
         <v>895</v>
@@ -12494,7 +12494,7 @@
         <v>8081</v>
       </c>
       <c r="B129" t="n">
-        <v>134663</v>
+        <v>165552</v>
       </c>
       <c r="C129" t="s">
         <v>903</v>
@@ -12565,7 +12565,7 @@
         <v>8081</v>
       </c>
       <c r="B130" t="n">
-        <v>134664</v>
+        <v>165553</v>
       </c>
       <c r="C130" t="s">
         <v>910</v>
@@ -12636,7 +12636,7 @@
         <v>8081</v>
       </c>
       <c r="B131" t="n">
-        <v>134665</v>
+        <v>165554</v>
       </c>
       <c r="C131" t="s">
         <v>916</v>
@@ -12707,7 +12707,7 @@
         <v>8081</v>
       </c>
       <c r="B132" t="n">
-        <v>134666</v>
+        <v>165555</v>
       </c>
       <c r="C132" t="s">
         <v>924</v>
@@ -12778,7 +12778,7 @@
         <v>8081</v>
       </c>
       <c r="B133" t="n">
-        <v>134667</v>
+        <v>165556</v>
       </c>
       <c r="C133" t="s">
         <v>932</v>
@@ -12849,7 +12849,7 @@
         <v>8081</v>
       </c>
       <c r="B134" t="n">
-        <v>134668</v>
+        <v>165557</v>
       </c>
       <c r="C134" t="s">
         <v>940</v>
@@ -12916,7 +12916,7 @@
         <v>8081</v>
       </c>
       <c r="B135" t="n">
-        <v>134669</v>
+        <v>165558</v>
       </c>
       <c r="C135" t="s">
         <v>947</v>
@@ -12983,7 +12983,7 @@
         <v>8081</v>
       </c>
       <c r="B136" t="n">
-        <v>134670</v>
+        <v>165559</v>
       </c>
       <c r="C136" t="s">
         <v>954</v>
@@ -13048,7 +13048,7 @@
         <v>8081</v>
       </c>
       <c r="B137" t="n">
-        <v>134671</v>
+        <v>165560</v>
       </c>
       <c r="C137" t="s">
         <v>961</v>
@@ -13123,7 +13123,7 @@
         <v>8081</v>
       </c>
       <c r="B138" t="n">
-        <v>134672</v>
+        <v>165561</v>
       </c>
       <c r="C138" t="s">
         <v>971</v>
@@ -13194,7 +13194,7 @@
         <v>8081</v>
       </c>
       <c r="B139" t="n">
-        <v>134673</v>
+        <v>165562</v>
       </c>
       <c r="C139" t="s">
         <v>978</v>
@@ -13265,7 +13265,7 @@
         <v>8081</v>
       </c>
       <c r="B140" t="n">
-        <v>134674</v>
+        <v>165563</v>
       </c>
       <c r="C140" t="s">
         <v>986</v>
@@ -13336,7 +13336,7 @@
         <v>8081</v>
       </c>
       <c r="B141" t="n">
-        <v>134675</v>
+        <v>165564</v>
       </c>
       <c r="C141" t="s">
         <v>994</v>
@@ -13407,7 +13407,7 @@
         <v>8081</v>
       </c>
       <c r="B142" t="n">
-        <v>134676</v>
+        <v>165565</v>
       </c>
       <c r="C142" t="s">
         <v>1001</v>
@@ -13478,7 +13478,7 @@
         <v>8081</v>
       </c>
       <c r="B143" t="n">
-        <v>134677</v>
+        <v>165566</v>
       </c>
       <c r="C143" t="s">
         <v>1009</v>
@@ -13549,7 +13549,7 @@
         <v>8081</v>
       </c>
       <c r="B144" t="n">
-        <v>134678</v>
+        <v>165567</v>
       </c>
       <c r="C144" t="s">
         <v>1017</v>
@@ -13618,7 +13618,7 @@
         <v>8081</v>
       </c>
       <c r="B145" t="n">
-        <v>134679</v>
+        <v>165568</v>
       </c>
       <c r="C145" t="s">
         <v>1025</v>
